--- a/2018stats.xlsx
+++ b/2018stats.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\NBA_parity\NBA_parity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rdschrad\Desktop\Balance Teams\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13500" windowHeight="17835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13500" windowHeight="17832"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="527">
   <si>
     <t>Rk</t>
   </si>
@@ -376,9 +376,6 @@
   </si>
   <si>
     <t>Isaiah Canaan</t>
-  </si>
-  <si>
-    <t>PG-SG</t>
   </si>
   <si>
     <t>Clint Capela</t>
@@ -2426,22 +2423,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A297" workbookViewId="0">
-      <selection activeCell="H482" sqref="H333:H482"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C483" sqref="C483"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2458,30 +2456,30 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>458</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>26</v>
@@ -2511,12 +2509,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>431</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>12</v>
@@ -2546,7 +2544,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>73</v>
       </c>
@@ -2581,12 +2579,12 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>304</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>26</v>
@@ -2616,12 +2614,12 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>453</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>23</v>
@@ -2651,12 +2649,12 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>224</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
@@ -2686,12 +2684,12 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>200</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>6</v>
@@ -2721,7 +2719,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>36</v>
       </c>
@@ -2756,7 +2754,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>30</v>
       </c>
@@ -2791,12 +2789,12 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>293</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>6</v>
@@ -2826,12 +2824,12 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>289</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>26</v>
@@ -2861,12 +2859,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>106</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>12</v>
@@ -2896,12 +2894,12 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>164</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>9</v>
@@ -2931,7 +2929,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>16</v>
       </c>
@@ -2966,12 +2964,12 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>427</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>6</v>
@@ -3001,12 +2999,12 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>162</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>26</v>
@@ -3036,12 +3034,12 @@
         <v>4.8000000000000007</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>201</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>6</v>
@@ -3071,12 +3069,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>380</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>26</v>
@@ -3106,12 +3104,12 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>159</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>12</v>
@@ -3141,12 +3139,12 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>262</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>6</v>
@@ -3176,12 +3174,12 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>124</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>6</v>
@@ -3211,7 +3209,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>20</v>
       </c>
@@ -3246,7 +3244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>7</v>
       </c>
@@ -3281,12 +3279,12 @@
         <v>3.4000000000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>476</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>9</v>
@@ -3316,7 +3314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>17</v>
       </c>
@@ -3351,12 +3349,12 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>215</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>26</v>
@@ -3386,12 +3384,12 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>216</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>23</v>
@@ -3421,12 +3419,12 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>417</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>26</v>
@@ -3456,12 +3454,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>316</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>6</v>
@@ -3491,12 +3489,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>185</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>6</v>
@@ -3526,12 +3524,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>445</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>23</v>
@@ -3561,12 +3559,12 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>450</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>26</v>
@@ -3596,12 +3594,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>401</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>23</v>
@@ -3631,12 +3629,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>187</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>9</v>
@@ -3666,12 +3664,12 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>242</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>12</v>
@@ -3701,12 +3699,12 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>269</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>23</v>
@@ -3736,12 +3734,12 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>448</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>26</v>
@@ -3771,12 +3769,12 @@
         <v>0.19999999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>206</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>12</v>
@@ -3806,12 +3804,12 @@
         <v>5.1999999999999993</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>462</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>6</v>
@@ -3841,7 +3839,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>31</v>
       </c>
@@ -3876,12 +3874,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>214</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>26</v>
@@ -3911,7 +3909,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>54</v>
       </c>
@@ -3946,12 +3944,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>345</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>6</v>
@@ -3981,12 +3979,12 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>253</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>9</v>
@@ -4016,12 +4014,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>116</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>9</v>
@@ -4051,12 +4049,12 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>132</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>12</v>
@@ -4086,12 +4084,12 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>405</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>6</v>
@@ -4121,12 +4119,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>168</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>6</v>
@@ -4156,7 +4154,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>62</v>
       </c>
@@ -4191,12 +4189,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>181</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>6</v>
@@ -4226,12 +4224,12 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>326</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>23</v>
@@ -4261,12 +4259,12 @@
         <v>0.10000000000000003</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>98</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>23</v>
@@ -4296,12 +4294,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>149</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>6</v>
@@ -4331,12 +4329,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>311</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>6</v>
@@ -4366,12 +4364,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>135</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>9</v>
@@ -4401,12 +4399,12 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>276</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>23</v>
@@ -4436,12 +4434,12 @@
         <v>7.3000000000000007</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>394</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>23</v>
@@ -4471,12 +4469,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>131</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>23</v>
@@ -4506,12 +4504,12 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>366</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>26</v>
@@ -4541,12 +4539,12 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>208</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>12</v>
@@ -4576,12 +4574,12 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>142</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>23</v>
@@ -4611,12 +4609,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>368</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>9</v>
@@ -4646,12 +4644,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>274</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>12</v>
@@ -4681,12 +4679,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>438</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>6</v>
@@ -4716,7 +4714,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>66</v>
       </c>
@@ -4751,12 +4749,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>174</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>9</v>
@@ -4786,7 +4784,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>28</v>
       </c>
@@ -4821,12 +4819,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>408</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>6</v>
@@ -4856,7 +4854,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>3</v>
       </c>
@@ -4891,7 +4889,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>77</v>
       </c>
@@ -4926,12 +4924,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>89</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>26</v>
@@ -4961,12 +4959,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>285</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>9</v>
@@ -4996,12 +4994,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>402</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>6</v>
@@ -5031,12 +5029,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>388</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>23</v>
@@ -5066,7 +5064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>35</v>
       </c>
@@ -5101,12 +5099,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>107</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>9</v>
@@ -5136,12 +5134,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>275</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>12</v>
@@ -5171,12 +5169,12 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>127</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>23</v>
@@ -5206,12 +5204,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>169</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>12</v>
@@ -5241,7 +5239,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>57</v>
       </c>
@@ -5276,12 +5274,12 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>348</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>26</v>
@@ -5311,12 +5309,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>392</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>9</v>
@@ -5346,12 +5344,12 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>235</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>23</v>
@@ -5381,12 +5379,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>203</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>26</v>
@@ -5416,7 +5414,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>14</v>
       </c>
@@ -5451,12 +5449,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>419</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>23</v>
@@ -5486,12 +5484,12 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>377</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>6</v>
@@ -5521,12 +5519,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>167</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>9</v>
@@ -5556,12 +5554,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>152</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>26</v>
@@ -5591,12 +5589,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>108</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>6</v>
@@ -5626,12 +5624,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>134</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>23</v>
@@ -5661,12 +5659,12 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>433</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>26</v>
@@ -5696,7 +5694,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>64</v>
       </c>
@@ -5731,12 +5729,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>219</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>23</v>
@@ -5766,12 +5764,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>432</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>26</v>
@@ -5801,12 +5799,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>237</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C97" s="3" t="s">
         <v>12</v>
@@ -5836,12 +5834,12 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>336</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>12</v>
@@ -5871,12 +5869,12 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>267</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>26</v>
@@ -5906,12 +5904,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>80</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>26</v>
@@ -5941,12 +5939,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>243</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>23</v>
@@ -5976,12 +5974,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>446</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>23</v>
@@ -6011,12 +6009,12 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>144</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>12</v>
@@ -6046,12 +6044,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>411</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>6</v>
@@ -6081,7 +6079,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>51</v>
       </c>
@@ -6116,12 +6114,12 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>338</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>12</v>
@@ -6151,12 +6149,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>112</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>26</v>
@@ -6186,7 +6184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>59</v>
       </c>
@@ -6221,12 +6219,12 @@
         <v>0.49999999999999994</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>308</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>23</v>
@@ -6256,12 +6254,12 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>463</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C110" s="3" t="s">
         <v>9</v>
@@ -6291,12 +6289,12 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>160</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>12</v>
@@ -6326,12 +6324,12 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>382</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>6</v>
@@ -6361,12 +6359,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>137</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>6</v>
@@ -6396,12 +6394,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>256</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>6</v>
@@ -6431,12 +6429,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>436</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>23</v>
@@ -6466,12 +6464,12 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>421</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>6</v>
@@ -6501,12 +6499,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>245</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>12</v>
@@ -6536,12 +6534,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>85</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>12</v>
@@ -6571,12 +6569,12 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>211</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>9</v>
@@ -6606,7 +6604,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>53</v>
       </c>
@@ -6641,12 +6639,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>442</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>12</v>
@@ -6676,12 +6674,12 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>414</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>6</v>
@@ -6711,12 +6709,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>406</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>23</v>
@@ -6746,12 +6744,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>186</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>6</v>
@@ -6781,12 +6779,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>387</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>23</v>
@@ -6816,12 +6814,12 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>390</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>12</v>
@@ -6851,7 +6849,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>29</v>
       </c>
@@ -6886,12 +6884,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>192</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>12</v>
@@ -6921,12 +6919,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>296</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>26</v>
@@ -6956,12 +6954,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>346</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>9</v>
@@ -6991,12 +6989,12 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>358</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>23</v>
@@ -7026,12 +7024,12 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>212</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>26</v>
@@ -7061,7 +7059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>13</v>
       </c>
@@ -7096,12 +7094,12 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>375</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>12</v>
@@ -7131,7 +7129,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>42</v>
       </c>
@@ -7166,12 +7164,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>434</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>12</v>
@@ -7201,12 +7199,12 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>376</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>9</v>
@@ -7236,12 +7234,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>92</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>6</v>
@@ -7271,7 +7269,7 @@
         <v>-0.30000000000000004</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>39</v>
       </c>
@@ -7306,12 +7304,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>196</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>6</v>
@@ -7341,12 +7339,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>198</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>23</v>
@@ -7376,12 +7374,12 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>79</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>12</v>
@@ -7411,12 +7409,12 @@
         <v>2.4000000000000004</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>114</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>23</v>
@@ -7446,12 +7444,12 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>177</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>9</v>
@@ -7481,12 +7479,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>138</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>12</v>
@@ -7516,12 +7514,12 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>205</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>6</v>
@@ -7551,12 +7549,12 @@
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>251</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>6</v>
@@ -7586,12 +7584,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
         <v>172</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>23</v>
@@ -7621,12 +7619,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
         <v>221</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>26</v>
@@ -7656,12 +7654,12 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
         <v>139</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>26</v>
@@ -7691,12 +7689,12 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
         <v>247</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>26</v>
@@ -7726,12 +7724,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
         <v>153</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>23</v>
@@ -7761,12 +7759,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
         <v>444</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>6</v>
@@ -7796,12 +7794,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
         <v>383</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>6</v>
@@ -7831,12 +7829,12 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
         <v>151</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>6</v>
@@ -7866,7 +7864,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
         <v>11</v>
       </c>
@@ -7901,12 +7899,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
         <v>113</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>26</v>
@@ -7936,12 +7934,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
         <v>232</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>9</v>
@@ -7971,12 +7969,12 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
         <v>306</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>26</v>
@@ -8006,12 +8004,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
         <v>223</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>23</v>
@@ -8041,12 +8039,12 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
         <v>407</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>23</v>
@@ -8076,12 +8074,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
         <v>443</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>6</v>
@@ -8111,12 +8109,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
         <v>90</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>9</v>
@@ -8146,7 +8144,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
         <v>18</v>
       </c>
@@ -8181,12 +8179,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
         <v>178</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>9</v>
@@ -8216,12 +8214,12 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
         <v>244</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>9</v>
@@ -8251,12 +8249,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
         <v>319</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>9</v>
@@ -8286,12 +8284,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
         <v>234</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>26</v>
@@ -8321,12 +8319,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
         <v>362</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>12</v>
@@ -8356,12 +8354,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
         <v>173</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>6</v>
@@ -8391,12 +8389,12 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
         <v>236</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>26</v>
@@ -8426,12 +8424,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>9</v>
@@ -8461,12 +8459,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
         <v>87</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>23</v>
@@ -8496,12 +8494,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
         <v>101</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>6</v>
@@ -8531,12 +8529,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
         <v>88</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>12</v>
@@ -8566,12 +8564,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
         <v>241</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>23</v>
@@ -8601,12 +8599,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
         <v>110</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>6</v>
@@ -8636,7 +8634,7 @@
         <v>-0.89999999999999991</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
         <v>32</v>
       </c>
@@ -8671,12 +8669,12 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
         <v>337</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>23</v>
@@ -8706,12 +8704,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
         <v>294</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>23</v>
@@ -8741,7 +8739,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
         <v>33</v>
       </c>
@@ -8776,12 +8774,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
         <v>115</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>6</v>
@@ -8811,12 +8809,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
         <v>331</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>23</v>
@@ -8846,7 +8844,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
         <v>34</v>
       </c>
@@ -8881,12 +8879,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
         <v>263</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>12</v>
@@ -8916,12 +8914,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
         <v>396</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>26</v>
@@ -8951,12 +8949,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
         <v>213</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C187" s="3" t="s">
         <v>9</v>
@@ -8986,12 +8984,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
         <v>369</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>12</v>
@@ -9021,12 +9019,12 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
         <v>400</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>9</v>
@@ -9056,12 +9054,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
         <v>95</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>9</v>
@@ -9091,12 +9089,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
         <v>330</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>23</v>
@@ -9126,12 +9124,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
         <v>118</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>12</v>
@@ -9161,12 +9159,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
         <v>437</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>12</v>
@@ -9196,12 +9194,12 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
         <v>180</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>6</v>
@@ -9231,12 +9229,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
         <v>283</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>12</v>
@@ -9266,12 +9264,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2">
         <v>325</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>23</v>
@@ -9301,12 +9299,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2">
         <v>426</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>9</v>
@@ -9336,12 +9334,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2">
         <v>161</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>9</v>
@@ -9371,7 +9369,7 @@
         <v>1.2999999999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2">
         <v>47</v>
       </c>
@@ -9406,12 +9404,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2">
         <v>126</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>12</v>
@@ -9441,12 +9439,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2">
         <v>279</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>9</v>
@@ -9476,12 +9474,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2">
         <v>356</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>23</v>
@@ -9511,12 +9509,12 @@
         <v>7.1999999999999993</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2">
         <v>252</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>12</v>
@@ -9546,12 +9544,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2">
         <v>165</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>6</v>
@@ -9581,12 +9579,12 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2">
         <v>182</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>26</v>
@@ -9616,12 +9614,12 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2">
         <v>430</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C206" s="3" t="s">
         <v>9</v>
@@ -9651,12 +9649,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2">
         <v>439</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>23</v>
@@ -9686,12 +9684,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2">
         <v>273</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>12</v>
@@ -9721,7 +9719,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2">
         <v>72</v>
       </c>
@@ -9756,12 +9754,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2">
         <v>147</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>23</v>
@@ -9791,12 +9789,12 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2">
         <v>342</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>12</v>
@@ -9826,7 +9824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2">
         <v>2</v>
       </c>
@@ -9861,12 +9859,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2">
         <v>395</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>9</v>
@@ -9896,7 +9894,7 @@
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2">
         <v>24</v>
       </c>
@@ -9931,12 +9929,12 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2">
         <v>339</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>6</v>
@@ -9966,12 +9964,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2">
         <v>188</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>23</v>
@@ -10001,12 +9999,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2">
         <v>364</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>12</v>
@@ -10036,12 +10034,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2">
         <v>184</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>23</v>
@@ -10071,12 +10069,12 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2">
         <v>384</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>23</v>
@@ -10106,12 +10104,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2">
         <v>367</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>9</v>
@@ -10141,12 +10139,12 @@
         <v>0.10000000000000003</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2">
         <v>176</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>9</v>
@@ -10176,12 +10174,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2">
         <v>286</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>9</v>
@@ -10211,12 +10209,12 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2">
         <v>249</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>9</v>
@@ -10246,7 +10244,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2">
         <v>38</v>
       </c>
@@ -10281,12 +10279,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2">
         <v>189</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>6</v>
@@ -10316,12 +10314,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2">
         <v>329</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>9</v>
@@ -10351,12 +10349,12 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2">
         <v>225</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>23</v>
@@ -10386,12 +10384,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2">
         <v>301</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>6</v>
@@ -10421,7 +10419,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2">
         <v>4</v>
       </c>
@@ -10456,12 +10454,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2">
         <v>292</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>6</v>
@@ -10491,12 +10489,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2">
         <v>121</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>23</v>
@@ -10526,12 +10524,12 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2">
         <v>370</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>6</v>
@@ -10561,12 +10559,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2">
         <v>141</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>23</v>
@@ -10596,12 +10594,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2">
         <v>435</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>12</v>
@@ -10631,12 +10629,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2">
         <v>246</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>6</v>
@@ -10666,12 +10664,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2">
         <v>255</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>9</v>
@@ -10701,12 +10699,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2">
         <v>305</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>26</v>
@@ -10736,7 +10734,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2">
         <v>71</v>
       </c>
@@ -10771,12 +10769,12 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2">
         <v>468</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>26</v>
@@ -10806,12 +10804,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2">
         <v>195</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>26</v>
@@ -10841,12 +10839,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2">
         <v>472</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>23</v>
@@ -10876,12 +10874,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2">
         <v>323</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>23</v>
@@ -10911,12 +10909,12 @@
         <v>-0.89999999999999991</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2">
         <v>457</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>12</v>
@@ -10946,12 +10944,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2">
         <v>354</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>9</v>
@@ -10981,12 +10979,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2">
         <v>290</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C245" s="3" t="s">
         <v>9</v>
@@ -11016,12 +11014,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2">
         <v>282</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>12</v>
@@ -11051,12 +11049,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2">
         <v>478</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>12</v>
@@ -11086,12 +11084,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2">
         <v>475</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>6</v>
@@ -11121,7 +11119,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2">
         <v>58</v>
       </c>
@@ -11156,7 +11154,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2">
         <v>1</v>
       </c>
@@ -11191,12 +11189,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2">
         <v>271</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>23</v>
@@ -11226,12 +11224,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2">
         <v>479</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>26</v>
@@ -11261,7 +11259,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2">
         <v>8</v>
       </c>
@@ -11296,12 +11294,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2">
         <v>228</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>9</v>
@@ -11331,12 +11329,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2">
         <v>386</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>6</v>
@@ -11366,12 +11364,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2">
         <v>84</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>26</v>
@@ -11401,12 +11399,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2">
         <v>120</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>9</v>
@@ -11436,7 +11434,7 @@
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2">
         <v>76</v>
       </c>
@@ -11471,12 +11469,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2">
         <v>424</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>12</v>
@@ -11506,12 +11504,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2">
         <v>229</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>12</v>
@@ -11541,12 +11539,12 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2">
         <v>277</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C261" s="3" t="s">
         <v>26</v>
@@ -11576,12 +11574,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2">
         <v>91</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>6</v>
@@ -11611,12 +11609,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2">
         <v>452</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>12</v>
@@ -11646,12 +11644,12 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2">
         <v>393</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>6</v>
@@ -11681,12 +11679,12 @@
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2">
         <v>119</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>12</v>
@@ -11716,12 +11714,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2">
         <v>429</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>6</v>
@@ -11751,12 +11749,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2">
         <v>353</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C267" s="3" t="s">
         <v>26</v>
@@ -11786,12 +11784,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2">
         <v>461</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>6</v>
@@ -11821,12 +11819,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2">
         <v>209</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>9</v>
@@ -11856,12 +11854,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2">
         <v>166</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>12</v>
@@ -11891,12 +11889,12 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2">
         <v>287</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>23</v>
@@ -11926,7 +11924,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2">
         <v>40</v>
       </c>
@@ -11961,12 +11959,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2">
         <v>343</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>9</v>
@@ -11996,7 +11994,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2">
         <v>25</v>
       </c>
@@ -12031,12 +12029,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2">
         <v>154</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>23</v>
@@ -12066,12 +12064,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2">
         <v>318</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C276" s="3" t="s">
         <v>9</v>
@@ -12101,12 +12099,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2">
         <v>280</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>23</v>
@@ -12136,12 +12134,12 @@
         <v>-0.19999999999999998</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2">
         <v>349</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>12</v>
@@ -12171,12 +12169,12 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2">
         <v>418</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>23</v>
@@ -12206,12 +12204,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2">
         <v>183</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>12</v>
@@ -12241,12 +12239,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2">
         <v>158</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>6</v>
@@ -12276,12 +12274,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2">
         <v>122</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>23</v>
@@ -12311,7 +12309,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2">
         <v>43</v>
       </c>
@@ -12346,12 +12344,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2">
         <v>268</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>6</v>
@@ -12381,7 +12379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2">
         <v>61</v>
       </c>
@@ -12416,12 +12414,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2">
         <v>82</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>23</v>
@@ -12451,12 +12449,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2">
         <v>170</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>6</v>
@@ -12486,12 +12484,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2">
         <v>309</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>9</v>
@@ -12521,12 +12519,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2">
         <v>222</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>26</v>
@@ -12556,12 +12554,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2">
         <v>302</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>12</v>
@@ -12591,12 +12589,12 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2">
         <v>233</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>26</v>
@@ -12626,7 +12624,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2">
         <v>26</v>
       </c>
@@ -12661,12 +12659,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2">
         <v>412</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>12</v>
@@ -12696,12 +12694,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2">
         <v>313</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>6</v>
@@ -12731,12 +12729,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2">
         <v>355</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>6</v>
@@ -12766,12 +12764,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2">
         <v>441</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>9</v>
@@ -12801,7 +12799,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2">
         <v>5</v>
       </c>
@@ -12836,12 +12834,12 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2">
         <v>310</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>9</v>
@@ -12871,12 +12869,12 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2">
         <v>317</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>9</v>
@@ -12906,12 +12904,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="300" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2">
         <v>143</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>9</v>
@@ -12941,12 +12939,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2">
         <v>363</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>12</v>
@@ -12976,7 +12974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2">
         <v>48</v>
       </c>
@@ -13011,12 +13009,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2">
         <v>428</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>12</v>
@@ -13046,12 +13044,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2">
         <v>314</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>12</v>
@@ -13081,12 +13079,12 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2">
         <v>155</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>12</v>
@@ -13116,12 +13114,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2">
         <v>86</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>9</v>
@@ -13151,7 +13149,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2">
         <v>37</v>
       </c>
@@ -13186,12 +13184,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2">
         <v>81</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>26</v>
@@ -13221,12 +13219,12 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2">
         <v>197</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>12</v>
@@ -13256,12 +13254,12 @@
         <v>0.79999999999999993</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2">
         <v>299</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>6</v>
@@ -13291,12 +13289,12 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2">
         <v>96</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>12</v>
@@ -13326,12 +13324,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2">
         <v>352</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>23</v>
@@ -13361,12 +13359,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2">
         <v>477</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>12</v>
@@ -13396,12 +13394,12 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2">
         <v>100</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>23</v>
@@ -13431,12 +13429,12 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2">
         <v>422</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>23</v>
@@ -13466,12 +13464,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2">
         <v>204</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>12</v>
@@ -13501,12 +13499,12 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2">
         <v>379</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>12</v>
@@ -13536,12 +13534,12 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2">
         <v>257</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>23</v>
@@ -13571,12 +13569,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2">
         <v>272</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>12</v>
@@ -13606,12 +13604,12 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2">
         <v>218</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>26</v>
@@ -13641,12 +13639,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2">
         <v>157</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>26</v>
@@ -13676,12 +13674,12 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2">
         <v>146</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>12</v>
@@ -13711,7 +13709,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2">
         <v>44</v>
       </c>
@@ -13746,12 +13744,12 @@
         <v>2.5999999999999996</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2">
         <v>261</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>9</v>
@@ -13781,12 +13779,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2">
         <v>389</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>23</v>
@@ -13816,12 +13814,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2">
         <v>471</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>9</v>
@@ -13851,12 +13849,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2">
         <v>322</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>12</v>
@@ -13886,7 +13884,7 @@
         <v>-0.60000000000000009</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2">
         <v>49</v>
       </c>
@@ -13921,12 +13919,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2">
         <v>117</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>12</v>
@@ -13956,7 +13954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2">
         <v>41</v>
       </c>
@@ -13991,12 +13989,12 @@
         <v>-0.60000000000000009</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2">
         <v>148</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>6</v>
@@ -14026,7 +14024,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2">
         <v>27</v>
       </c>
@@ -14061,12 +14059,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2">
         <v>341</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>26</v>
@@ -14096,12 +14094,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2">
         <v>347</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>26</v>
@@ -14131,12 +14129,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2">
         <v>217</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>9</v>
@@ -14166,12 +14164,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2">
         <v>381</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>6</v>
@@ -14201,12 +14199,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2">
         <v>467</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>26</v>
@@ -14236,7 +14234,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2">
         <v>10</v>
       </c>
@@ -14271,12 +14269,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2">
         <v>258</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>12</v>
@@ -14306,12 +14304,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2">
         <v>399</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>6</v>
@@ -14341,12 +14339,12 @@
         <v>0.19999999999999998</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2">
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>9</v>
@@ -14376,12 +14374,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2">
         <v>324</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C342" s="3" t="s">
         <v>26</v>
@@ -14411,12 +14409,12 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2">
         <v>335</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>12</v>
@@ -14446,12 +14444,12 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2">
         <v>297</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C344" s="3" t="s">
         <v>12</v>
@@ -14481,12 +14479,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2">
         <v>413</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>6</v>
@@ -14516,7 +14514,7 @@
         <v>-0.30000000000000004</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="2">
         <v>78</v>
       </c>
@@ -14524,7 +14522,7 @@
         <v>117</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="D346" s="3">
         <v>26</v>
@@ -14551,12 +14549,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2">
         <v>327</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>12</v>
@@ -14586,12 +14584,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="2">
         <v>248</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>6</v>
@@ -14621,12 +14619,12 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2">
         <v>175</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>6</v>
@@ -14656,12 +14654,12 @@
         <v>-0.30000000000000004</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2">
         <v>474</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>23</v>
@@ -14691,12 +14689,12 @@
         <v>-0.30000000000000004</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2">
         <v>140</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>23</v>
@@ -14726,12 +14724,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="2">
         <v>303</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C352" s="3" t="s">
         <v>9</v>
@@ -14761,12 +14759,12 @@
         <v>-0.30000000000000004</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2">
         <v>332</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C353" s="3" t="s">
         <v>23</v>
@@ -14796,12 +14794,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2">
         <v>334</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>12</v>
@@ -14831,12 +14829,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2">
         <v>226</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>12</v>
@@ -14866,7 +14864,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2">
         <v>55</v>
       </c>
@@ -14901,12 +14899,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="357" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2">
         <v>133</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C357" s="3" t="s">
         <v>9</v>
@@ -14936,12 +14934,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2">
         <v>193</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>9</v>
@@ -14971,12 +14969,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2">
         <v>264</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C359" s="3" t="s">
         <v>26</v>
@@ -15006,12 +15004,12 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2">
         <v>109</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>26</v>
@@ -15041,12 +15039,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2">
         <v>385</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>23</v>
@@ -15076,12 +15074,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2">
         <v>365</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>26</v>
@@ -15111,12 +15109,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2">
         <v>129</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>6</v>
@@ -15146,12 +15144,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2">
         <v>194</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C364" s="3" t="s">
         <v>12</v>
@@ -15181,12 +15179,12 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2">
         <v>398</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C365" s="3" t="s">
         <v>23</v>
@@ -15216,7 +15214,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="2">
         <v>50</v>
       </c>
@@ -15251,12 +15249,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="2">
         <v>403</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>23</v>
@@ -15286,12 +15284,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2">
         <v>440</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>6</v>
@@ -15321,12 +15319,12 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="2">
         <v>409</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>12</v>
@@ -15356,12 +15354,12 @@
         <v>-9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2">
         <v>420</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>9</v>
@@ -15391,12 +15389,12 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2">
         <v>447</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>23</v>
@@ -15426,12 +15424,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="2">
         <v>328</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>26</v>
@@ -15461,7 +15459,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="2">
         <v>68</v>
       </c>
@@ -15496,12 +15494,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2">
         <v>460</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>26</v>
@@ -15531,7 +15529,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="2">
         <v>63</v>
       </c>
@@ -15566,12 +15564,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="2">
         <v>125</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>9</v>
@@ -15601,12 +15599,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2">
         <v>423</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>6</v>
@@ -15636,7 +15634,7 @@
         <v>0.19999999999999998</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="2">
         <v>74</v>
       </c>
@@ -15671,12 +15669,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="2">
         <v>207</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>6</v>
@@ -15706,12 +15704,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="2">
         <v>456</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>23</v>
@@ -15741,12 +15739,12 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2">
         <v>265</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>12</v>
@@ -15776,7 +15774,7 @@
         <v>-0.30000000000000004</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2">
         <v>12</v>
       </c>
@@ -15811,12 +15809,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2">
         <v>266</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>9</v>
@@ -15846,12 +15844,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2">
         <v>145</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>23</v>
@@ -15881,12 +15879,12 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2">
         <v>284</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>12</v>
@@ -15916,12 +15914,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2">
         <v>416</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>9</v>
@@ -15951,12 +15949,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2">
         <v>231</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C387" s="3" t="s">
         <v>12</v>
@@ -15986,12 +15984,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2">
         <v>136</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>9</v>
@@ -16021,12 +16019,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2">
         <v>451</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>23</v>
@@ -16056,12 +16054,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2">
         <v>260</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C390" s="3" t="s">
         <v>26</v>
@@ -16091,12 +16089,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2">
         <v>344</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>12</v>
@@ -16126,12 +16124,12 @@
         <v>-0.60000000000000009</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2">
         <v>128</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>6</v>
@@ -16161,7 +16159,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="2">
         <v>65</v>
       </c>
@@ -16196,12 +16194,12 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2">
         <v>359</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C394" s="3" t="s">
         <v>23</v>
@@ -16231,12 +16229,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="2">
         <v>449</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>23</v>
@@ -16266,12 +16264,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2">
         <v>239</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>26</v>
@@ -16301,12 +16299,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="2">
         <v>102</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>23</v>
@@ -16336,12 +16334,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2">
         <v>227</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C398" s="3" t="s">
         <v>26</v>
@@ -16371,12 +16369,12 @@
         <v>-0.30000000000000004</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="2">
         <v>391</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>26</v>
@@ -16406,12 +16404,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2">
         <v>163</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C400" s="3" t="s">
         <v>6</v>
@@ -16441,12 +16439,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="2">
         <v>83</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>23</v>
@@ -16476,12 +16474,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="2">
         <v>150</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>9</v>
@@ -16511,12 +16509,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="403" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="2">
         <v>473</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>9</v>
@@ -16546,7 +16544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="2">
         <v>23</v>
       </c>
@@ -16581,12 +16579,12 @@
         <v>-0.30000000000000004</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="2">
         <v>425</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>23</v>
@@ -16616,7 +16614,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="2">
         <v>67</v>
       </c>
@@ -16651,12 +16649,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="2">
         <v>94</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>6</v>
@@ -16686,12 +16684,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="2">
         <v>455</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>9</v>
@@ -16721,12 +16719,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="2">
         <v>454</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>23</v>
@@ -16756,12 +16754,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="2">
         <v>397</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>6</v>
@@ -16791,12 +16789,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="2">
         <v>371</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>9</v>
@@ -16826,12 +16824,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="2">
         <v>156</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C412" s="3" t="s">
         <v>6</v>
@@ -16861,12 +16859,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="2">
         <v>373</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>12</v>
@@ -16896,12 +16894,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="2">
         <v>351</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>12</v>
@@ -16931,12 +16929,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="2">
         <v>295</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>9</v>
@@ -16966,12 +16964,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="2">
         <v>93</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>6</v>
@@ -17001,12 +16999,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="2">
         <v>281</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>23</v>
@@ -17036,12 +17034,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="2">
         <v>220</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C418" s="3" t="s">
         <v>23</v>
@@ -17071,12 +17069,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="2">
         <v>130</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>6</v>
@@ -17106,7 +17104,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="2">
         <v>22</v>
       </c>
@@ -17141,12 +17139,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="2">
         <v>466</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>9</v>
@@ -17176,12 +17174,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="2">
         <v>199</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>6</v>
@@ -17211,7 +17209,7 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="2">
         <v>21</v>
       </c>
@@ -17246,12 +17244,12 @@
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="2">
         <v>361</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>9</v>
@@ -17281,12 +17279,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="2">
         <v>190</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>12</v>
@@ -17316,7 +17314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="2">
         <v>52</v>
       </c>
@@ -17351,12 +17349,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="2">
         <v>99</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>9</v>
@@ -17386,12 +17384,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="2">
         <v>404</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>26</v>
@@ -17421,12 +17419,12 @@
         <v>-0.5</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="2">
         <v>357</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>9</v>
@@ -17456,12 +17454,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="2">
         <v>469</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>12</v>
@@ -17491,12 +17489,12 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="2">
         <v>480</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>12</v>
@@ -17526,12 +17524,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="2">
         <v>230</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>9</v>
@@ -17561,7 +17559,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="2">
         <v>56</v>
       </c>
@@ -17596,12 +17594,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="2">
         <v>111</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>6</v>
@@ -17631,12 +17629,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="2">
         <v>481</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>12</v>
@@ -17666,12 +17664,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="2">
         <v>333</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>12</v>
@@ -17701,12 +17699,12 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="2">
         <v>298</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>26</v>
@@ -17736,12 +17734,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="2">
         <v>459</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>9</v>
@@ -17771,12 +17769,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="2">
         <v>250</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>6</v>
@@ -17806,12 +17804,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="2">
         <v>415</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C440" s="3" t="s">
         <v>6</v>
@@ -17841,7 +17839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="2">
         <v>60</v>
       </c>
@@ -17876,7 +17874,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="2">
         <v>15</v>
       </c>
@@ -17911,12 +17909,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="2">
         <v>270</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C443" s="3" t="s">
         <v>23</v>
@@ -17946,12 +17944,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="2">
         <v>97</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>26</v>
@@ -17981,7 +17979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="2">
         <v>6</v>
       </c>
@@ -18016,7 +18014,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="2">
         <v>46</v>
       </c>
@@ -18051,7 +18049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="2">
         <v>45</v>
       </c>
@@ -18086,12 +18084,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="2">
         <v>259</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>6</v>
@@ -18121,12 +18119,12 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="2">
         <v>240</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>26</v>
@@ -18156,12 +18154,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="2">
         <v>470</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>23</v>
@@ -18191,12 +18189,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="2">
         <v>291</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>9</v>
@@ -18226,12 +18224,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="2">
         <v>105</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>12</v>
@@ -18261,12 +18259,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="2">
         <v>103</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C453" s="3" t="s">
         <v>6</v>
@@ -18296,12 +18294,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="2">
         <v>202</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>26</v>
@@ -18331,12 +18329,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="2">
         <v>465</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C455" s="3" t="s">
         <v>26</v>
@@ -18366,12 +18364,12 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="2">
         <v>307</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>26</v>
@@ -18401,12 +18399,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="2">
         <v>123</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>26</v>
@@ -18436,12 +18434,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="2">
         <v>410</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>9</v>
@@ -18471,12 +18469,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="2">
         <v>464</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>6</v>
@@ -18506,7 +18504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="2">
         <v>69</v>
       </c>
@@ -18541,12 +18539,12 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="2">
         <v>288</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>12</v>
@@ -18576,12 +18574,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="2">
         <v>179</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>6</v>
@@ -18611,7 +18609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="2">
         <v>9</v>
       </c>
@@ -18646,12 +18644,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="2">
         <v>315</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C464" s="3" t="s">
         <v>6</v>
@@ -18681,12 +18679,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="2">
         <v>374</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>9</v>
@@ -18716,7 +18714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="2">
         <v>75</v>
       </c>
@@ -18751,12 +18749,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="2">
         <v>210</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>9</v>
@@ -18786,7 +18784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="2">
         <v>70</v>
       </c>
@@ -18821,12 +18819,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="2">
         <v>372</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>23</v>
@@ -18856,12 +18854,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="2">
         <v>191</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>26</v>
@@ -18891,7 +18889,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="2">
         <v>19</v>
       </c>
@@ -18926,12 +18924,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="2">
         <v>378</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>6</v>
@@ -18961,12 +18959,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="2">
         <v>300</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>9</v>
@@ -18996,12 +18994,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="2">
         <v>320</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>23</v>
@@ -19031,12 +19029,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="2">
         <v>350</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C475" s="3" t="s">
         <v>23</v>
@@ -19066,12 +19064,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="2">
         <v>360</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>23</v>
@@ -19101,12 +19099,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="2">
         <v>104</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>9</v>
@@ -19136,12 +19134,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="2">
         <v>278</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>9</v>
@@ -19171,12 +19169,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="2">
         <v>321</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>9</v>
@@ -19206,12 +19204,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="2">
         <v>254</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>26</v>
@@ -19241,12 +19239,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="2">
         <v>238</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>12</v>
@@ -19276,12 +19274,12 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="2">
         <v>312</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C482" s="3" t="s">
         <v>6</v>
@@ -19313,6 +19311,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K482">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="PG-SG"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:K482">
       <sortCondition descending="1" ref="H1:H482"/>
     </sortState>
